--- a/documentation-generator/vocab_csv/location_jurisdiction.xlsx
+++ b/documentation-generator/vocab_csv/location_jurisdiction.xlsx
@@ -305,10 +305,10 @@
     <t>dpv:RemoteLocation</t>
   </si>
   <si>
-    <t>PubliclyLocation</t>
-  </si>
-  <si>
-    <t>Publicly Accessible Location</t>
+    <t>PublicLocation</t>
+  </si>
+  <si>
+    <t>Public Location</t>
   </si>
   <si>
     <t>Location that is or can be accessed by the public</t>
